--- a/src/test/resources/PersonDetails.xlsx
+++ b/src/test/resources/PersonDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dummy\UnderstandingExcel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA312BE1-3303-43F9-945B-34657159B963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A35A3F6-BF23-496B-82A3-82EFDC1192E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="1488" windowWidth="17280" windowHeight="8964" xr2:uid="{927EEFDB-31AA-44D3-B3B0-CE5BA30760C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{927EEFDB-31AA-44D3-B3B0-CE5BA30760C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -78,50 +78,85 @@
     <t>MurugeshKonar@example.com</t>
   </si>
   <si>
-    <t>123 MG, Road, Bangalore, Karnataka</t>
-  </si>
-  <si>
-    <t>654, Carter Road, Mumbai, Maharashtra</t>
-  </si>
-  <si>
-    <t>321, Marine Drive, Kochi, Kerala</t>
-  </si>
-  <si>
-    <t>789, Park Avenue, New Delhi, Delhi</t>
-  </si>
-  <si>
-    <t>420, Shivaji Nagar, Mumbai, Maharastra</t>
+    <t>420, Shivaji Nagar, Jaipur, Rajasthan</t>
+  </si>
+  <si>
+    <t>789, Park Avenue, Delhi, NCR</t>
+  </si>
+  <si>
+    <t>321, Marine Drive, Noida, NCR</t>
+  </si>
+  <si>
+    <t>654, Carter Road, Karnal, Haryana</t>
+  </si>
+  <si>
+    <t>123 MG, Road, Agra, Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Maths, Physics</t>
+  </si>
+  <si>
+    <t>Output2</t>
+  </si>
+  <si>
+    <t>Name:Murugesh E
+Email:MurugeshKonar@example.com
+Current Address :123 MG, Road, Agra, Uttar Pradesh
+Permananet Address :123 MG, Road, Agra, Uttar Pradesh</t>
   </si>
   <si>
     <t>Name:Satish E
 Email:Satish@example.com
-Current Address :654, Carter Road, Mumbai, Maharashtra
-Permananet Address :654, Carter Road, Mumbai, Maharashtra</t>
+Current Address :654, Carter Road, Karnal, Haryana
+Permananet Address :654, Carter Road, Karnal, Haryana</t>
   </si>
   <si>
     <t>Name:Sanjay Verma
 Email:Sanjay.verma@outlook.com
-Current Address :789, Park Avenue, New Delhi, Delhi
-Permananet Address :789, Park Avenue, New Delhi, Delhi</t>
+Current Address :789, Park Avenue, Delhi, NCR
+Permananet Address :789, Park Avenue, Delhi, NCR</t>
   </si>
   <si>
     <t>Name:Rohit Gupta
 Email:Rohit.gupta@hotmail.com
-Current Address :420, Shivaji Nagar, Mumbai, Maharastra
-Permananet Address :420, Shivaji Nagar, Mumbai, Maharastra</t>
+Current Address :420, Shivaji Nagar, Jaipur, Rajasthan
+Permananet Address :420, Shivaji Nagar, Jaipur, Rajasthan</t>
   </si>
   <si>
     <t>Name:Kavita Nair
 Email:Kavita.Nair@gmail.com
-Current Address :321, Marine Drive, Kochi, Kerala
-Permananet Address :321, Marine Drive, Kochi, Kerala</t>
+Current Address :321, Marine Drive, Noida, NCR
+Permananet Address :321, Marine Drive, Noida, NCR</t>
+  </si>
+  <si>
+    <t>Thanks for submitting the form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,9 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,19 +515,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB36D067-9341-4FE3-AA10-92D0677A7FC2}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" customWidth="true" width="12.77734375"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="27.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="14.6640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="24.5546875"/>
+    <col min="6" max="6" customWidth="true" style="2" width="11.88671875"/>
+    <col min="7" max="7" customWidth="true" width="38.77734375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="140.77734375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -498,13 +541,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="H1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="I1" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
@@ -512,10 +570,28 @@
         <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36456</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
@@ -523,13 +599,28 @@
         <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9876543210</v>
+      </c>
+      <c r="E3" s="2">
+        <v>28625</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
@@ -537,13 +628,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
+      <c r="D4" s="3">
+        <v>8765432102</v>
+      </c>
+      <c r="E4" s="2">
+        <v>27955</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
@@ -551,13 +657,28 @@
         <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7894561230</v>
+      </c>
+      <c r="E5" s="2">
+        <v>40310</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
@@ -565,10 +686,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8547621945</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25552</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>22</v>
+      <c r="H6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
